--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>3.073138441523333</v>
+        <v>1.332405269455</v>
       </c>
       <c r="R2">
-        <v>27.65824597371</v>
+        <v>11.991647425095</v>
       </c>
       <c r="S2">
-        <v>0.001947069375719627</v>
+        <v>0.0007595201197929244</v>
       </c>
       <c r="T2">
-        <v>0.001947069375719627</v>
+        <v>0.0007595201197929245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>89.49436117293332</v>
+        <v>65.18137967473332</v>
       </c>
       <c r="R3">
-        <v>805.4492505563999</v>
+        <v>586.6324170725999</v>
       </c>
       <c r="S3">
-        <v>0.05670155551242748</v>
+        <v>0.03715578918347526</v>
       </c>
       <c r="T3">
-        <v>0.05670155551242746</v>
+        <v>0.03715578918347527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>21.28064685085111</v>
+        <v>23.08408076131611</v>
       </c>
       <c r="R4">
-        <v>191.52582165766</v>
+        <v>207.7567268518449</v>
       </c>
       <c r="S4">
-        <v>0.01348292521382718</v>
+        <v>0.01315877697805555</v>
       </c>
       <c r="T4">
-        <v>0.01348292521382718</v>
+        <v>0.01315877697805555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.18496979955</v>
+        <v>0.1072177543288889</v>
       </c>
       <c r="R5">
-        <v>1.66472819595</v>
+        <v>0.9649597889599999</v>
       </c>
       <c r="S5">
-        <v>0.0001171925830839823</v>
+        <v>6.111807231527639E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001171925830839822</v>
+        <v>6.11180723152764E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>31.36544716448734</v>
+        <v>18.671440429642</v>
       </c>
       <c r="R6">
-        <v>282.289024480386</v>
+        <v>168.042963866778</v>
       </c>
       <c r="S6">
-        <v>0.01987242123705074</v>
+        <v>0.01064340932667491</v>
       </c>
       <c r="T6">
-        <v>0.01987242123705074</v>
+        <v>0.01064340932667491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>913.4084618386933</v>
@@ -883,10 +883,10 @@
         <v>8220.676156548239</v>
       </c>
       <c r="S7">
-        <v>0.5787144567062572</v>
+        <v>0.5206764940515162</v>
       </c>
       <c r="T7">
-        <v>0.5787144567062571</v>
+        <v>0.5206764940515162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>217.1971803833285</v>
+        <v>323.4849401220531</v>
       </c>
       <c r="R8">
-        <v>1954.774623449956</v>
+        <v>2911.364461098477</v>
       </c>
       <c r="S8">
-        <v>0.1376111055404985</v>
+        <v>0.1843983404337675</v>
       </c>
       <c r="T8">
-        <v>0.1376111055404985</v>
+        <v>0.1843983404337675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>1.88786173653</v>
+        <v>1.502478231544889</v>
       </c>
       <c r="R9">
-        <v>16.99075562877</v>
+        <v>13.522304083904</v>
       </c>
       <c r="S9">
-        <v>0.001196105493694704</v>
+        <v>0.0008564679775516125</v>
       </c>
       <c r="T9">
-        <v>0.001196105493694703</v>
+        <v>0.0008564679775516127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>6.923395009882999</v>
+        <v>4.673393382619</v>
       </c>
       <c r="R10">
-        <v>62.310555088947</v>
+        <v>42.060540443571</v>
       </c>
       <c r="S10">
-        <v>0.004386502806906145</v>
+        <v>0.002664006502509651</v>
       </c>
       <c r="T10">
-        <v>0.004386502806906145</v>
+        <v>0.002664006502509651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>201.61955777372</v>
+        <v>228.6228037558533</v>
       </c>
       <c r="R11">
-        <v>1814.57601996348</v>
+        <v>2057.60523380268</v>
       </c>
       <c r="S11">
-        <v>0.1277414844652268</v>
+        <v>0.1303234258200331</v>
       </c>
       <c r="T11">
-        <v>0.1277414844652268</v>
+        <v>0.1303234258200331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>47.94262511038467</v>
+        <v>80.96709968574677</v>
       </c>
       <c r="R12">
-        <v>431.483625993462</v>
+        <v>728.7038971717209</v>
       </c>
       <c r="S12">
-        <v>0.03037533743444537</v>
+        <v>0.04615423149576562</v>
       </c>
       <c r="T12">
-        <v>0.03037533743444536</v>
+        <v>0.04615423149576562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.4167137314349999</v>
+        <v>0.3760648168142222</v>
       </c>
       <c r="R13">
-        <v>3.750423582914999</v>
+        <v>3.384583351328</v>
       </c>
       <c r="S13">
-        <v>0.0002640201736296498</v>
+        <v>0.0002143708083903588</v>
       </c>
       <c r="T13">
-        <v>0.0002640201736296498</v>
+        <v>0.0002143708083903589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>1.173547717375</v>
+        <v>1.379276899728</v>
       </c>
       <c r="R14">
-        <v>10.561929456375</v>
+        <v>12.413492097552</v>
       </c>
       <c r="S14">
-        <v>0.0007435326669871361</v>
+        <v>0.0007862386768685806</v>
       </c>
       <c r="T14">
-        <v>0.0007435326669871361</v>
+        <v>0.0007862386768685807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>34.175454595</v>
+        <v>67.47434383423999</v>
       </c>
       <c r="R15">
-        <v>307.579091355</v>
+        <v>607.2690945081599</v>
       </c>
       <c r="S15">
-        <v>0.02165277689547781</v>
+        <v>0.03846286327949842</v>
       </c>
       <c r="T15">
-        <v>0.02165277689547781</v>
+        <v>0.03846286327949842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>8.126498370083334</v>
+        <v>23.89613736559466</v>
       </c>
       <c r="R16">
-        <v>73.13848533075</v>
+        <v>215.0652362903519</v>
       </c>
       <c r="S16">
-        <v>0.005148761244996644</v>
+        <v>0.01362167917718342</v>
       </c>
       <c r="T16">
-        <v>0.005148761244996644</v>
+        <v>0.01362167917718342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>0.07063491937499999</v>
+        <v>0.1109894828373333</v>
       </c>
       <c r="R17">
-        <v>0.6357142743749999</v>
+        <v>0.9989053455359999</v>
       </c>
       <c r="S17">
-        <v>4.475264977106409E-05</v>
+        <v>6.326809660160473E-05</v>
       </c>
       <c r="T17">
-        <v>4.475264977106408E-05</v>
+        <v>6.326809660160474E-05</v>
       </c>
     </row>
   </sheetData>
